--- a/Web学习相关.xlsx
+++ b/Web学习相关.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>JS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,13 +60,6 @@
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[attr(属性）*=attr_name]{}</t>
-    <rPh sb="6" eb="7">
-      <t>shu'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,20 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[attr(属性）^=attr_name]{}</t>
-    <rPh sb="6" eb="7">
-      <t>shu'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[attr(属性）$=attr_name]{}</t>
-    <rPh sb="6" eb="7">
-      <t>shu'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有以attr_name开始的属性的选择器</t>
     <rPh sb="0" eb="1">
       <t>suo'you</t>
@@ -217,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性: first-line{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伪元素选择器（常用）</t>
     <rPh sb="0" eb="1">
       <t>wei'zhuang</t>
@@ -234,18 +209,6 @@
     <rPh sb="7" eb="8">
       <t>chang'yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性: before{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性: after{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性: first-letter{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,38 +325,500 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性 *:not()</t>
-    <rPh sb="0" eb="1">
+    <t>:empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:empty{background-color: azure;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target选择器：点击超链接跳转后target开始起作用</t>
+  </si>
+  <si>
+    <t>:target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:target{background-color: azure;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第一个子元素</t>
+  </si>
+  <si>
+    <t>li:first-child{color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择最后一个子元素</t>
+    <rPh sb="2" eb="3">
+      <t>zui'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:last-child{color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择括号内个子元素</t>
+    <rPh sb="2" eb="3">
+      <t>kuo'hao'nei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth-child(2){color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth-last-child(2){color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择倒数括号内个子元素</t>
+    <rPh sb="2" eb="3">
+      <t>dao'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kuo'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth-child(odd)表示选择所有奇数的子元素，其余类型也会算在内。</t>
+    <rPh sb="14" eb="15">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'yuan'su</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>suan'zai'nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nth-child(even)表示选择所有偶数的子元素，其余类型也会算在内。</t>
+    <rPh sb="15" eb="16">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zi'yuan'su</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>suan'zai'nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟nth-child(){}作用几乎一样，不同得是在选择奇偶数的时候只计算该属性的个数，不计算其他类型</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zuo'yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'hu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'yang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de'shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ji'ou'shu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
       <t>shu'xing</t>
     </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ji'suan'qi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>qi'ta'lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟nth-last-child(){}作用几乎一样，不同得是在选择奇偶数的时候只计算该属性的个数，不计算其他类型</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zuo'yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yi'yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ji'ou'shu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ge'shu</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ji'suan'qi</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>qi'ta'lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2:nth-of-type(odd){color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2:nth-last-of-type(odd){color:red;}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>not选择器:括号内的内容不运用该样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>div *:not(h1){</t>
-  </si>
-  <si>
-    <t>:empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>empty选择器：空标签内的内容运用的样式</t>
-  </si>
-  <si>
-    <t>:empty{background-color: azure;}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target选择器：点击超链接跳转后target开始起作用</t>
-  </si>
-  <si>
-    <t>:target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:target{background-color: azure;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[E*=attr_name]{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[E^=attr_name]{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[E$=attr_name]{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E: first-line{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E: first-letter{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E: before{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E: after{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E *:not()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:first-child{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:last-child{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:nth-child(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:nth-last-child(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:nth-of-type(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:nth-last-of-type(){}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:hover{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input[type="text"]:hover{color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:focus{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当鼠标悬停在元素上的时候，运用样式的内容</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan'ting</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yun'yong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当元素获得焦点的时候，运用样式的内容</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao'dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input[type="text"]:focus{color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:active{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当鼠标点击的时候，运用样式的内容</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input[type="text"]:active{color:red;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:checked{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当选中的时候，运用样式的内容</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xuan'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yun'yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yang'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input[type="checked"]:checked{color:red;}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,17 +939,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -805,181 +1244,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="100" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="4" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="23" spans="1:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
